--- a/data/trans_orig/P33_1_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_2023-Clase-trans_orig.xlsx
@@ -563,10 +563,10 @@
         <v>7.027332583029767</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>6.981487788154549</v>
+        <v>6.981487788154548</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.005703543958962</v>
+        <v>7.005703543958961</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.935658363459895</v>
+        <v>6.943635732526414</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.900697130890365</v>
+        <v>6.899367773593632</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.946766617567425</v>
+        <v>6.943824540896161</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.102126714923702</v>
+        <v>7.105012047481402</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.059760580448452</v>
+        <v>7.064831067759307</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.061896990621652</v>
+        <v>7.059207769764344</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.024474607211729</v>
+        <v>7.026241602532115</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.873799817008707</v>
+        <v>6.869054836382173</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.982305477674696</v>
+        <v>6.98256716051755</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.207108442322391</v>
+        <v>7.217092687421856</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.060663346961558</v>
+        <v>7.05410090902869</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.11275204788801</v>
+        <v>7.113031236258652</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>6.964717650544666</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>6.954255643865999</v>
+        <v>6.954255643865998</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>6.961754571331188</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.853881923233132</v>
+        <v>6.855645702743668</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.818802066932522</v>
+        <v>6.816004880133529</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.878767049385996</v>
+        <v>6.870022967295256</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.066057743997937</v>
+        <v>7.068364674782073</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.087017131880419</v>
+        <v>7.082544317846718</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.047377430371194</v>
+        <v>7.038618754914975</v>
       </c>
     </row>
     <row r="13">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>7.123669274273999</v>
+        <v>7.123669274273998</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>6.929072503692354</v>
+        <v>6.929072503692353</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>7.038679565608056</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.04672766860426</v>
+        <v>7.0505300829194</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.854974333084951</v>
+        <v>6.859273800834583</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.987531127360312</v>
+        <v>6.987409856348838</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.195079093384544</v>
+        <v>7.197763410163255</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.999402110145111</v>
+        <v>7.010752476806734</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.089106497261517</v>
+        <v>7.088342845583381</v>
       </c>
     </row>
     <row r="16">
@@ -786,7 +786,7 @@
         <v>6.925511161444325</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.996592894573086</v>
+        <v>6.996592894573084</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.00171404623605</v>
+        <v>7.012564399679343</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.850132720402518</v>
+        <v>6.849608263568602</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.935901254831461</v>
+        <v>6.929681500162502</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.186913480198003</v>
+        <v>7.19363635658087</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.004703380116678</v>
+        <v>7.012364505908215</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.054897609131496</v>
+        <v>7.052326901221694</v>
       </c>
     </row>
     <row r="19">
@@ -841,7 +841,7 @@
         <v>7.207198369371672</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7.316216163944868</v>
+        <v>7.316216163944867</v>
       </c>
     </row>
     <row r="20">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>7.468767819934163</v>
+        <v>7.470094830549478</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>7.12681778702532</v>
+        <v>7.127193634430444</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7.239749822103625</v>
+        <v>7.241318116764204</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.880069098032595</v>
+        <v>7.881476878916771</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.28938259315858</v>
+        <v>7.294689319967832</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.392069834614653</v>
+        <v>7.396070349454166</v>
       </c>
     </row>
     <row r="22">
@@ -893,10 +893,10 @@
         <v>7.121831211371118</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>7.00555282738041</v>
+        <v>7.005552827380411</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7.062091913051687</v>
+        <v>7.062091913051686</v>
       </c>
     </row>
     <row r="23">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.082365925925425</v>
+        <v>7.077638244162177</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.971203654059187</v>
+        <v>6.970496151559716</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.033281036663113</v>
+        <v>7.034434187139492</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.16308212215914</v>
+        <v>7.159392331460935</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.042372261229293</v>
+        <v>7.04112808475971</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.089246976385018</v>
+        <v>7.088790600162917</v>
       </c>
     </row>
     <row r="25">
